--- a/@data/clinic_clean_use2.xlsx
+++ b/@data/clinic_clean_use2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutingchiu/Desktop/Data Scientist Road/@data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0DAF6D-0C3A-2E4A-A1A7-4742B449820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C3D7AC-39EB-2747-83FB-1303E75790CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>Sample ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>subtype</t>
-  </si>
-  <si>
     <t>TCGA-2V-A95S-01</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>STAGE I</t>
   </si>
   <si>
-    <t>HBV-HCV</t>
-  </si>
-  <si>
     <t>TCGA-2Y-A9GU-01</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>TCGA-2Y-A9H1-01</t>
   </si>
   <si>
-    <t>HCV</t>
-  </si>
-  <si>
     <t>TCGA-2Y-A9H2-01</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>TCGA-2Y-A9H4-01</t>
   </si>
   <si>
-    <t>HBV</t>
-  </si>
-  <si>
     <t>TCGA-2Y-A9H5-01</t>
   </si>
   <si>
@@ -142,18 +130,6 @@
     <t>TCGA-2Y-A9HA-01</t>
   </si>
   <si>
-    <t>TCGA-2Y-A9HB-01</t>
-  </si>
-  <si>
-    <t>TCGA-3K-AAZ8-01</t>
-  </si>
-  <si>
-    <t>TCGA-4R-AA8I-01</t>
-  </si>
-  <si>
-    <t>TCGA-5C-A9VG-01</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -187,12 +163,6 @@
     <t>1/1/2029</t>
   </si>
   <si>
-    <t>1/1/2030</t>
-  </si>
-  <si>
-    <t>1/1/2031</t>
-  </si>
-  <si>
     <t>1/2/2020</t>
   </si>
   <si>
@@ -221,12 +191,6 @@
   </si>
   <si>
     <t>1/2/2029</t>
-  </si>
-  <si>
-    <t>1/2/2030</t>
-  </si>
-  <si>
-    <t>1/2/2031</t>
   </si>
   <si>
     <t>Age</t>
@@ -587,35 +551,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -624,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -633,27 +600,24 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>0.2041</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>0.30030000000000001</v>
@@ -662,33 +626,33 @@
         <v>85</v>
       </c>
       <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
         <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
       </c>
       <c r="M2">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0.30020000000000002</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>0.32079999999999997</v>
@@ -697,30 +661,30 @@
         <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
         <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
       </c>
       <c r="M3">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>6.2199999999999998E-2</v>
@@ -735,33 +699,30 @@
         <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
         <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
       </c>
       <c r="M4">
         <v>122</v>
       </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0.31569999999999998</v>
@@ -776,36 +737,36 @@
         <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>0.29770000000000002</v>
@@ -814,36 +775,36 @@
         <v>0.03</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0.14779999999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>0.30230000000000001</v>
@@ -855,36 +816,36 @@
         <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
         <v>9</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
       </c>
       <c r="M7">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>0.31259999999999999</v>
@@ -896,33 +857,33 @@
         <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
         <v>9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>10</v>
       </c>
       <c r="M8">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>64</v>
       </c>
       <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
       </c>
       <c r="H9">
         <v>0.06</v>
@@ -931,36 +892,36 @@
         <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0.4572</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>0.31330000000000002</v>
@@ -972,30 +933,30 @@
         <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0.20369999999999999</v>
@@ -1010,39 +971,36 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
         <v>9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
       </c>
       <c r="M11">
         <v>89</v>
       </c>
-      <c r="N11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0.17069999999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>0.30609999999999998</v>
@@ -1054,39 +1012,36 @@
         <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
         <v>9</v>
-      </c>
-      <c r="L12" t="s">
-        <v>10</v>
       </c>
       <c r="M12">
         <v>89</v>
       </c>
-      <c r="N12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0.71260000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>0.31900000000000001</v>
@@ -1098,36 +1053,36 @@
         <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M13">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0.16420000000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>0.31169999999999998</v>
@@ -1139,36 +1094,36 @@
         <v>165</v>
       </c>
       <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
         <v>9</v>
-      </c>
-      <c r="K14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" t="s">
-        <v>10</v>
       </c>
       <c r="M14">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0.25800000000000001</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>0.31209999999999999</v>
@@ -1177,74 +1132,68 @@
         <v>64</v>
       </c>
       <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
         <v>9</v>
-      </c>
-      <c r="K15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" t="s">
-        <v>10</v>
       </c>
       <c r="M15">
         <v>61</v>
       </c>
-      <c r="N15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <v>0.31030000000000002</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M16">
         <v>69</v>
       </c>
-      <c r="N16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0.2319</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>0.30599999999999999</v>
@@ -1256,30 +1205,30 @@
         <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0.14929999999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>0.19</v>
@@ -1288,36 +1237,36 @@
         <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0.54590000000000005</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19">
         <v>0.31459999999999999</v>
@@ -1329,33 +1278,33 @@
         <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M19">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>0.31340000000000001</v>
@@ -1367,36 +1316,33 @@
         <v>123</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M20">
         <v>88</v>
       </c>
-      <c r="N20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0.27729999999999999</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21">
         <v>0.31559999999999999</v>
@@ -1408,174 +1354,16 @@
         <v>140</v>
       </c>
       <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
         <v>9</v>
-      </c>
-      <c r="K21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" t="s">
-        <v>10</v>
       </c>
       <c r="M21">
         <v>69</v>
-      </c>
-      <c r="N21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>0.1585</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22">
-        <v>0.315</v>
-      </c>
-      <c r="I22">
-        <v>67</v>
-      </c>
-      <c r="L22" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>0.1333</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23">
-        <v>0.31609999999999999</v>
-      </c>
-      <c r="H23">
-        <v>0.12</v>
-      </c>
-      <c r="I23">
-        <v>128</v>
-      </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>84</v>
-      </c>
-      <c r="N23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>0.12640000000000001</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <v>0.56769999999999998</v>
-      </c>
-      <c r="H24">
-        <v>12.87</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>0.17069999999999999</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25">
-        <v>0.3039</v>
-      </c>
-      <c r="H25">
-        <v>0.02</v>
-      </c>
-      <c r="I25">
-        <v>128</v>
-      </c>
-      <c r="J25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
